--- a/Documentation/NonStandardExpenseFormatForUipathBot.xlsx
+++ b/Documentation/NonStandardExpenseFormatForUipathBot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chara\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\UiPath\Voltas\VoltasNonStandardExpenseEntryBot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9A07B4-AB6E-4DD5-B03E-F27F74DC1E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0078C89-4A4E-4DD4-9722-FDE5CA059E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1252F4FA-9B50-4313-942C-5E82E5BC3D81}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SR #</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Dealer Explanation</t>
+  </si>
+  <si>
+    <t>Fault Group</t>
+  </si>
+  <si>
+    <t>Gas Charge Done Flag</t>
+  </si>
+  <si>
+    <t>Part Replaced Flag</t>
   </si>
 </sst>
 </file>
@@ -475,91 +484,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F65AD6-C74F-448E-B821-EB7E3922FB17}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" customWidth="1"/>
-    <col min="12" max="12" width="5.54296875" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" customWidth="1"/>
-    <col min="18" max="18" width="10.26953125" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="8" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6328125" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="10.26953125" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
